--- a/output.xlsx
+++ b/output.xlsx
@@ -433,322 +433,322 @@
   <sheetData>
     <row r="2">
       <c r="B2" s="1" t="n">
-        <v>0.1720212953660913</v>
+        <v>0.4159771205167532</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.3229539677709765</v>
+        <v>0.83000397064787</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.5909613917746098</v>
+        <v>0.9386926810631697</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.1750417809962831</v>
+        <v>0.3095092117233715</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>0.6167158644267976</v>
+        <v>0.6057599949539672</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>0.728331331877846</v>
+        <v>0.814826367536069</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.03716405250198329</v>
+        <v>0.7265848650839862</v>
       </c>
       <c r="AD2" s="2" t="n">
-        <v>0.5397572503077879</v>
+        <v>0.7825347212465584</v>
       </c>
       <c r="AL2" s="2" t="n">
-        <v>0.8914067313190419</v>
+        <v>0.44257566943966</v>
       </c>
       <c r="AU2" s="2" t="n">
-        <v>0.8578821977315846</v>
+        <v>0.7448863809837839</v>
       </c>
       <c r="BE2" s="2" t="n">
-        <v>0.764421372957474</v>
+        <v>0.4696295422633137</v>
       </c>
       <c r="BP2" s="2" t="n">
-        <v>0.883445316413953</v>
+        <v>0.3431117191401649</v>
       </c>
       <c r="CB2" s="2" t="n">
-        <v>0.7693754360389308</v>
+        <v>0.5472386988682936</v>
       </c>
       <c r="CO2" s="2" t="n">
-        <v>0.922857350440874</v>
+        <v>0.978566740120719</v>
       </c>
       <c r="DC2" s="2" t="n">
-        <v>0.7020038622846203</v>
+        <v>0.8713021950845218</v>
       </c>
       <c r="DR2" s="2" t="n">
-        <v>0.6621337150369694</v>
+        <v>0.3898592012827643</v>
       </c>
       <c r="EH2" s="2" t="n">
-        <v>0.3971522282257709</v>
+        <v>0.9191190260498311</v>
       </c>
       <c r="EY2" s="2" t="n">
-        <v>0.2708459029837252</v>
+        <v>0.8960145433939627</v>
       </c>
       <c r="FQ2" s="2" t="n">
-        <v>0.7357262587195667</v>
+        <v>0.02502673312870518</v>
       </c>
       <c r="GJ2" s="2" t="n">
-        <v>0.09253028263905583</v>
+        <v>0.8554868862785625</v>
       </c>
       <c r="HD2" s="2" t="n">
-        <v>0.5797672119289515</v>
+        <v>0.8133079336226681</v>
       </c>
       <c r="HY2" s="2" t="n">
-        <v>0.1601122128410328</v>
+        <v>0.1029667959468127</v>
       </c>
       <c r="IU2" s="2" t="n">
-        <v>0.2754815775880829</v>
+        <v>0.1148407243597884</v>
       </c>
       <c r="JR2" s="2" t="n">
-        <v>0.5293819343648702</v>
+        <v>0.3700887025408344</v>
       </c>
       <c r="KP2" s="2" t="n">
-        <v>0.989235380569645</v>
+        <v>0.9713075454734124</v>
       </c>
       <c r="LO2" s="2" t="n">
-        <v>0.1277852790433702</v>
+        <v>0.1510490625863448</v>
       </c>
       <c r="MO2" s="2" t="n">
-        <v>0.6638140518913485</v>
+        <v>0.7325950150904214</v>
       </c>
       <c r="NP2" s="2" t="n">
-        <v>0.4835641609194252</v>
+        <v>0.4006851375057146</v>
       </c>
       <c r="OR2" s="2" t="n">
-        <v>0.2712409018536587</v>
+        <v>0.8203602537929217</v>
       </c>
       <c r="PU2" s="2" t="n">
-        <v>0.7063811034599365</v>
+        <v>0.0281017532622716</v>
       </c>
       <c r="QY2" s="2" t="n">
-        <v>0.6958364141734917</v>
+        <v>0.7344553243931489</v>
       </c>
       <c r="SD2" s="2" t="n">
-        <v>0.4787860723474916</v>
+        <v>0.1475058408062646</v>
       </c>
       <c r="TJ2" s="2" t="n">
-        <v>0.9834640981032006</v>
+        <v>0.4769018378260569</v>
       </c>
       <c r="UQ2" s="2" t="n">
-        <v>0.1036792174976802</v>
+        <v>0.7966899100461728</v>
       </c>
       <c r="VY2" s="2" t="n">
-        <v>0.3189581383895062</v>
+        <v>0.0522311003312389</v>
       </c>
       <c r="XH2" s="2" t="n">
-        <v>0.8138353000618347</v>
+        <v>0.04141071508362337</v>
       </c>
       <c r="YR2" s="2" t="n">
-        <v>0.2459775155632262</v>
+        <v>0.8426754274548214</v>
       </c>
       <c r="AAC2" s="2" t="n">
-        <v>0.05813123869406911</v>
+        <v>0.4919045012468555</v>
       </c>
       <c r="ABO2" s="2" t="n">
-        <v>0.09749876158987303</v>
+        <v>0.6163279588021541</v>
       </c>
       <c r="ADB2" s="2" t="n">
-        <v>0.9903148963762988</v>
+        <v>0.1437056808018944</v>
       </c>
       <c r="AEP2" s="2" t="n">
-        <v>0.2307355391398254</v>
+        <v>0.5608722981818427</v>
       </c>
       <c r="AGE2" s="2" t="n">
-        <v>0.3264571537788724</v>
+        <v>0.656700952510452</v>
       </c>
       <c r="AHU2" s="2" t="n">
-        <v>0.8156849786483039</v>
+        <v>0.8938265480553216</v>
       </c>
       <c r="AJL2" s="2" t="n">
-        <v>0.7280300336279848</v>
+        <v>0.2268855706582327</v>
       </c>
       <c r="ALD2" s="2" t="n">
-        <v>0.5769946292189077</v>
+        <v>0.2808997918739536</v>
       </c>
       <c r="AMW2" s="2" t="n">
-        <v>0.4437200290201196</v>
+        <v>0.08749995096306806</v>
       </c>
       <c r="AOQ2" s="2" t="n">
-        <v>0.7369059561502361</v>
+        <v>0.9690682701014052</v>
       </c>
       <c r="AQL2" s="2" t="n">
-        <v>0.6027636616379444</v>
+        <v>0.3067569095035313</v>
       </c>
       <c r="ASH2" s="2" t="n">
-        <v>0.4034374409133511</v>
+        <v>0.4906373791954746</v>
       </c>
       <c r="AUE2" s="2" t="n">
-        <v>0.8007334221596758</v>
+        <v>0.1065013217832927</v>
       </c>
       <c r="AWC2" s="2" t="n">
-        <v>0.9920389066849542</v>
+        <v>0.2372055266422322</v>
       </c>
       <c r="AYB2" s="2" t="n">
-        <v>0.3424557994241721</v>
+        <v>0.3374785924343453</v>
       </c>
       <c r="BAB2" s="2" t="n">
-        <v>0.6264482292061091</v>
+        <v>0.691974925695751</v>
       </c>
       <c r="BCC2" s="2" t="n">
-        <v>0.9536351918816567</v>
+        <v>0.6747681790082624</v>
       </c>
       <c r="BEE2" s="2" t="n">
-        <v>0.2749350830903218</v>
+        <v>0.9224996520105275</v>
       </c>
       <c r="BGH2" s="2" t="n">
-        <v>0.5213711710322935</v>
+        <v>0.8512826657308196</v>
       </c>
       <c r="BIL2" s="2" t="n">
-        <v>0.3048672926309618</v>
+        <v>0.1549315353786521</v>
       </c>
       <c r="BKQ2" s="2" t="n">
-        <v>0.2855474229623491</v>
+        <v>0.9073460294463747</v>
       </c>
       <c r="BMW2" s="2" t="n">
-        <v>0.05880232357740212</v>
+        <v>0.1448046468008354</v>
       </c>
       <c r="BPD2" s="2" t="n">
-        <v>0.9140008920962088</v>
+        <v>0.4822430610810869</v>
       </c>
       <c r="BRL2" s="2" t="n">
-        <v>0.7560345794271484</v>
+        <v>0.8924798358029628</v>
       </c>
       <c r="BTU2" s="2" t="n">
-        <v>0.9972600916872145</v>
+        <v>0.3987718101014767</v>
       </c>
       <c r="BWE2" s="2" t="n">
-        <v>0.970633762792369</v>
+        <v>0.978349569520592</v>
       </c>
       <c r="BYP2" s="2" t="n">
-        <v>0.01785871066293154</v>
+        <v>0.9297225184190437</v>
       </c>
       <c r="CBB2" s="2" t="n">
-        <v>0.782135536529706</v>
+        <v>0.1697160901673216</v>
       </c>
       <c r="CDO2" s="2" t="n">
-        <v>0.4370702312459878</v>
+        <v>0.4444550190568228</v>
       </c>
       <c r="CGC2" s="2" t="n">
-        <v>0.03756595559436837</v>
+        <v>0.02263656972229</v>
       </c>
       <c r="CIR2" s="2" t="n">
-        <v>0.9804958199470274</v>
+        <v>0.3418102840225845</v>
       </c>
       <c r="CLH2" s="2" t="n">
-        <v>0.04177138355672649</v>
+        <v>0.4369927262969424</v>
       </c>
       <c r="CNY2" s="2" t="n">
-        <v>0.7095149274099993</v>
+        <v>0.8207349173337708</v>
       </c>
       <c r="CQQ2" s="2" t="n">
-        <v>0.6388017158806707</v>
+        <v>0.01521002036698915</v>
       </c>
       <c r="CTJ2" s="2" t="n">
-        <v>0.4486262530138606</v>
+        <v>0.154296451461578</v>
       </c>
       <c r="CWD2" s="2" t="n">
-        <v>0.005401283666714662</v>
+        <v>0.1261088286902875</v>
       </c>
       <c r="CYY2" s="2" t="n">
-        <v>0.9636230388099576</v>
+        <v>0.8626551888890134</v>
       </c>
       <c r="DBU2" s="2" t="n">
-        <v>0.4504292610876086</v>
+        <v>0.3163666684514217</v>
       </c>
       <c r="DER2" s="2" t="n">
-        <v>0.3060117910551902</v>
+        <v>0.8646935360291538</v>
       </c>
       <c r="DHP2" s="2" t="n">
-        <v>0.3618546425411395</v>
+        <v>0.03332489649936277</v>
       </c>
       <c r="DKO2" s="2" t="n">
-        <v>0.9060612401239542</v>
+        <v>0.5338940764876261</v>
       </c>
       <c r="DNO2" s="2" t="n">
-        <v>0.1103442220704733</v>
+        <v>0.897791102818659</v>
       </c>
       <c r="DQP2" s="2" t="n">
-        <v>0.9048160933258864</v>
+        <v>0.3409978508204008</v>
       </c>
       <c r="DTR2" s="2" t="n">
-        <v>0.8163186795427529</v>
+        <v>0.8266330194636542</v>
       </c>
       <c r="DWU2" s="2" t="n">
-        <v>0.5305016262205268</v>
+        <v>0.8574052050474104</v>
       </c>
       <c r="DZY2" s="2" t="n">
-        <v>0.4681922460164909</v>
+        <v>0.7493858951241773</v>
       </c>
       <c r="EDD2" s="2" t="n">
-        <v>0.7331361163421987</v>
+        <v>0.4163488228298778</v>
       </c>
       <c r="EGJ2" s="2" t="n">
-        <v>0.9428185075254391</v>
+        <v>0.06004686322220076</v>
       </c>
       <c r="EJQ2" s="2" t="n">
-        <v>0.6677255166614339</v>
+        <v>0.7201692336024936</v>
       </c>
       <c r="EMY2" s="2" t="n">
-        <v>0.2967279401166542</v>
+        <v>0.7169228613758929</v>
       </c>
       <c r="EQH2" s="2" t="n">
-        <v>0.1844129681868608</v>
+        <v>0.7326968728538973</v>
       </c>
       <c r="ETR2" s="2" t="n">
-        <v>0.9237586760964701</v>
+        <v>0.7767844753133595</v>
       </c>
       <c r="EXC2" s="2" t="n">
-        <v>0.8217541696530944</v>
+        <v>0.6146369486331714</v>
       </c>
       <c r="FAO2" s="2" t="n">
-        <v>0.7312269410648</v>
+        <v>0.8290295705028955</v>
       </c>
       <c r="FEB2" s="2" t="n">
-        <v>0.3194746581654084</v>
+        <v>0.8662764273049302</v>
       </c>
       <c r="FHP2" s="2" t="n">
-        <v>0.3630393071858894</v>
+        <v>0.9047266801318581</v>
       </c>
       <c r="FLE2" s="2" t="n">
-        <v>0.6384649903724052</v>
+        <v>0.8628645611980353</v>
       </c>
       <c r="FOU2" s="2" t="n">
-        <v>0.4659251086791998</v>
+        <v>0.5377594049907847</v>
       </c>
       <c r="FSL2" s="2" t="n">
-        <v>0.01896810638301583</v>
+        <v>0.2840878056451123</v>
       </c>
       <c r="FWD2" s="2" t="n">
-        <v>0.5717029441047916</v>
+        <v>0.8628201842939247</v>
       </c>
       <c r="FZW2" s="2" t="n">
-        <v>0.02594778538057141</v>
+        <v>0.7511880473252549</v>
       </c>
       <c r="GDQ2" s="2" t="n">
-        <v>0.5396039786828334</v>
+        <v>0.4470153367477337</v>
       </c>
       <c r="GHL2" s="2" t="n">
-        <v>0.6139124440802867</v>
+        <v>0.7973767470926274</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="2" t="n">
-        <v>0.5733494428952779</v>
+        <v>0.1201232279719109</v>
       </c>
     </row>
     <row r="4"/>
     <row r="5">
       <c r="B5" s="2" t="n">
-        <v>0.3876455235401545</v>
+        <v>0.767168974548927</v>
       </c>
     </row>
     <row r="6"/>
     <row r="7"/>
     <row r="8">
       <c r="B8" s="2" t="n">
-        <v>0.6307785734606299</v>
+        <v>0.7090672892213447</v>
       </c>
     </row>
     <row r="9"/>
@@ -756,7 +756,7 @@
     <row r="11"/>
     <row r="12">
       <c r="B12" s="2" t="n">
-        <v>0.8324551142109149</v>
+        <v>0.8802557587353268</v>
       </c>
     </row>
     <row r="13"/>
@@ -765,7 +765,7 @@
     <row r="16"/>
     <row r="17">
       <c r="B17" s="2" t="n">
-        <v>0.08603976637655986</v>
+        <v>0.04626542798360289</v>
       </c>
     </row>
     <row r="18"/>
@@ -775,7 +775,7 @@
     <row r="22"/>
     <row r="23">
       <c r="B23" s="2" t="n">
-        <v>0.03685547578557391</v>
+        <v>0.6631923802215159</v>
       </c>
     </row>
     <row r="24"/>
@@ -786,7 +786,7 @@
     <row r="29"/>
     <row r="30">
       <c r="B30" s="2" t="n">
-        <v>0.1713094395697282</v>
+        <v>0.9806014205635337</v>
       </c>
     </row>
     <row r="31"/>
@@ -798,7 +798,7 @@
     <row r="37"/>
     <row r="38">
       <c r="B38" s="2" t="n">
-        <v>0.9648566360254609</v>
+        <v>0.5177335615200153</v>
       </c>
     </row>
     <row r="39"/>
@@ -811,7 +811,7 @@
     <row r="46"/>
     <row r="47">
       <c r="B47" s="2" t="n">
-        <v>0.8564949604136782</v>
+        <v>0.7195025603489948</v>
       </c>
     </row>
     <row r="48"/>
@@ -825,7 +825,7 @@
     <row r="56"/>
     <row r="57">
       <c r="B57" s="2" t="n">
-        <v>0.6517442277714932</v>
+        <v>0.2620379739503431</v>
       </c>
     </row>
     <row r="58"/>
@@ -840,7 +840,7 @@
     <row r="67"/>
     <row r="68">
       <c r="B68" s="2" t="n">
-        <v>0.2218776248853307</v>
+        <v>0.5322968298160844</v>
       </c>
     </row>
     <row r="69"/>
@@ -856,7 +856,7 @@
     <row r="79"/>
     <row r="80">
       <c r="B80" s="2" t="n">
-        <v>0.3869723818304606</v>
+        <v>0.3412445089928726</v>
       </c>
     </row>
     <row r="81"/>
@@ -873,7 +873,7 @@
     <row r="92"/>
     <row r="93">
       <c r="B93" s="2" t="n">
-        <v>0.3721818805784262</v>
+        <v>0.9097066404767302</v>
       </c>
     </row>
     <row r="94"/>
@@ -891,7 +891,7 @@
     <row r="106"/>
     <row r="107">
       <c r="B107" s="2" t="n">
-        <v>0.08291925713316917</v>
+        <v>0.834230148434536</v>
       </c>
     </row>
     <row r="108"/>
@@ -910,7 +910,7 @@
     <row r="121"/>
     <row r="122">
       <c r="B122" s="2" t="n">
-        <v>0.9218768279227258</v>
+        <v>0.4799032620966536</v>
       </c>
     </row>
     <row r="123"/>
@@ -930,7 +930,7 @@
     <row r="137"/>
     <row r="138">
       <c r="B138" s="2" t="n">
-        <v>0.1184339022606118</v>
+        <v>0.5466591471002049</v>
       </c>
     </row>
     <row r="139"/>
@@ -951,7 +951,7 @@
     <row r="154"/>
     <row r="155">
       <c r="B155" s="2" t="n">
-        <v>0.1832694860459292</v>
+        <v>0.4233282417705319</v>
       </c>
     </row>
     <row r="156"/>
@@ -973,7 +973,7 @@
     <row r="172"/>
     <row r="173">
       <c r="B173" s="2" t="n">
-        <v>0.6060153663559336</v>
+        <v>0.7263111698584326</v>
       </c>
     </row>
     <row r="174"/>
@@ -996,7 +996,7 @@
     <row r="191"/>
     <row r="192">
       <c r="B192" s="2" t="n">
-        <v>0.6443999601049448</v>
+        <v>0.8142652120645422</v>
       </c>
     </row>
     <row r="193"/>
@@ -1020,7 +1020,7 @@
     <row r="211"/>
     <row r="212">
       <c r="B212" s="2" t="n">
-        <v>0.6302676106169041</v>
+        <v>0.6071243615377435</v>
       </c>
     </row>
     <row r="213"/>
@@ -1045,7 +1045,7 @@
     <row r="232"/>
     <row r="233">
       <c r="B233" s="2" t="n">
-        <v>0.2862185977853966</v>
+        <v>0.5616222838067015</v>
       </c>
     </row>
     <row r="234"/>
@@ -1071,7 +1071,7 @@
     <row r="254"/>
     <row r="255">
       <c r="B255" s="2" t="n">
-        <v>0.9160032649297285</v>
+        <v>0.2346623581397339</v>
       </c>
     </row>
     <row r="256"/>
@@ -1098,7 +1098,7 @@
     <row r="277"/>
     <row r="278">
       <c r="B278" s="2" t="n">
-        <v>0.4086842328761763</v>
+        <v>0.3584997666106587</v>
       </c>
     </row>
     <row r="279"/>
@@ -1126,7 +1126,7 @@
     <row r="301"/>
     <row r="302">
       <c r="B302" s="2" t="n">
-        <v>0.5861854029289523</v>
+        <v>0.5087795317970548</v>
       </c>
     </row>
     <row r="303"/>
@@ -1155,7 +1155,7 @@
     <row r="326"/>
     <row r="327">
       <c r="B327" s="2" t="n">
-        <v>0.7719092915414866</v>
+        <v>0.05923053317529303</v>
       </c>
     </row>
     <row r="328"/>
@@ -1185,7 +1185,7 @@
     <row r="352"/>
     <row r="353">
       <c r="B353" s="2" t="n">
-        <v>0.4002258963620985</v>
+        <v>0.2361150211331648</v>
       </c>
     </row>
     <row r="354"/>
@@ -1216,7 +1216,7 @@
     <row r="379"/>
     <row r="380">
       <c r="B380" s="2" t="n">
-        <v>0.7312747729017196</v>
+        <v>0.6081593296024332</v>
       </c>
     </row>
     <row r="381"/>
@@ -1248,7 +1248,7 @@
     <row r="407"/>
     <row r="408">
       <c r="B408" s="2" t="n">
-        <v>0.7216995339392587</v>
+        <v>0.6864799636207459</v>
       </c>
     </row>
     <row r="409"/>
@@ -1281,7 +1281,7 @@
     <row r="436"/>
     <row r="437">
       <c r="B437" s="2" t="n">
-        <v>0.3316647738550512</v>
+        <v>0.99904859577539</v>
       </c>
     </row>
     <row r="438"/>
@@ -1315,7 +1315,7 @@
     <row r="466"/>
     <row r="467">
       <c r="B467" s="2" t="n">
-        <v>0.5618300959742712</v>
+        <v>0.7150324536603785</v>
       </c>
     </row>
     <row r="468"/>
@@ -1350,7 +1350,7 @@
     <row r="497"/>
     <row r="498">
       <c r="B498" s="2" t="n">
-        <v>0.2752655111546367</v>
+        <v>0.856643270940645</v>
       </c>
     </row>
     <row r="499"/>
@@ -1386,7 +1386,7 @@
     <row r="529"/>
     <row r="530">
       <c r="B530" s="2" t="n">
-        <v>0.8734123771390228</v>
+        <v>0.6185609370243212</v>
       </c>
     </row>
     <row r="531"/>
@@ -1423,7 +1423,7 @@
     <row r="562"/>
     <row r="563">
       <c r="B563" s="2" t="n">
-        <v>0.1489180812695557</v>
+        <v>0.6769376988966702</v>
       </c>
     </row>
     <row r="564"/>
@@ -1461,7 +1461,7 @@
     <row r="596"/>
     <row r="597">
       <c r="B597" s="2" t="n">
-        <v>0.705621576646249</v>
+        <v>0.0929924813610693</v>
       </c>
     </row>
     <row r="598"/>
@@ -1500,7 +1500,7 @@
     <row r="631"/>
     <row r="632">
       <c r="B632" s="2" t="n">
-        <v>0.6238441173729419</v>
+        <v>0.111419379067926</v>
       </c>
     </row>
     <row r="633"/>
@@ -1540,7 +1540,7 @@
     <row r="667"/>
     <row r="668">
       <c r="B668" s="2" t="n">
-        <v>0.5607365620477446</v>
+        <v>0.9530535399582295</v>
       </c>
     </row>
     <row r="669"/>
@@ -1581,7 +1581,7 @@
     <row r="704"/>
     <row r="705">
       <c r="B705" s="2" t="n">
-        <v>0.9533184563713825</v>
+        <v>0.2185414706353286</v>
       </c>
     </row>
     <row r="706"/>
@@ -1623,7 +1623,7 @@
     <row r="742"/>
     <row r="743">
       <c r="B743" s="2" t="n">
-        <v>0.6276248336158374</v>
+        <v>0.5500692965855755</v>
       </c>
     </row>
     <row r="744"/>
@@ -1666,7 +1666,7 @@
     <row r="781"/>
     <row r="782">
       <c r="B782" s="2" t="n">
-        <v>0.1214668479174346</v>
+        <v>0.8965299298028007</v>
       </c>
     </row>
     <row r="783"/>
@@ -1710,7 +1710,7 @@
     <row r="821"/>
     <row r="822">
       <c r="B822" s="2" t="n">
-        <v>0.5304945985480326</v>
+        <v>0.3031711282989777</v>
       </c>
     </row>
     <row r="823"/>
@@ -1755,7 +1755,7 @@
     <row r="862"/>
     <row r="863">
       <c r="B863" s="2" t="n">
-        <v>0.1560624228438212</v>
+        <v>0.3252608247654413</v>
       </c>
     </row>
     <row r="864"/>
@@ -1801,7 +1801,7 @@
     <row r="904"/>
     <row r="905">
       <c r="B905" s="2" t="n">
-        <v>0.8094904121871251</v>
+        <v>0.5268809145002222</v>
       </c>
     </row>
     <row r="906"/>
@@ -1848,7 +1848,7 @@
     <row r="947"/>
     <row r="948">
       <c r="B948" s="2" t="n">
-        <v>0.2951752983765413</v>
+        <v>0.6918295943752306</v>
       </c>
     </row>
     <row r="949"/>
@@ -1896,7 +1896,7 @@
     <row r="991"/>
     <row r="992">
       <c r="B992" s="2" t="n">
-        <v>0.7859363871982296</v>
+        <v>0.2760336333991205</v>
       </c>
     </row>
     <row r="993"/>
@@ -1945,7 +1945,7 @@
     <row r="1036"/>
     <row r="1037">
       <c r="B1037" s="2" t="n">
-        <v>0.4455596263233448</v>
+        <v>0.1092748655822423</v>
       </c>
     </row>
     <row r="1038"/>
@@ -1995,7 +1995,7 @@
     <row r="1082"/>
     <row r="1083">
       <c r="B1083" s="2" t="n">
-        <v>0.4268260743344179</v>
+        <v>0.3332051738902708</v>
       </c>
     </row>
     <row r="1084"/>
@@ -2046,7 +2046,7 @@
     <row r="1129"/>
     <row r="1130">
       <c r="B1130" s="2" t="n">
-        <v>0.8574398680115183</v>
+        <v>0.3625039717607318</v>
       </c>
     </row>
     <row r="1131"/>
@@ -2098,7 +2098,7 @@
     <row r="1177"/>
     <row r="1178">
       <c r="B1178" s="2" t="n">
-        <v>0.00646494026143285</v>
+        <v>0.1873419152906201</v>
       </c>
     </row>
     <row r="1179"/>
@@ -2151,7 +2151,7 @@
     <row r="1226"/>
     <row r="1227">
       <c r="B1227" s="2" t="n">
-        <v>0.8032433173469887</v>
+        <v>0.6812144964986362</v>
       </c>
     </row>
     <row r="1228"/>
@@ -2205,7 +2205,7 @@
     <row r="1276"/>
     <row r="1277">
       <c r="B1277" s="2" t="n">
-        <v>0.8348382754515287</v>
+        <v>0.5676993244445705</v>
       </c>
     </row>
     <row r="1278"/>
@@ -2260,7 +2260,7 @@
     <row r="1327"/>
     <row r="1328">
       <c r="B1328" s="2" t="n">
-        <v>0.6945158726781739</v>
+        <v>0.4862861943894238</v>
       </c>
     </row>
     <row r="1329"/>
@@ -2316,7 +2316,7 @@
     <row r="1379"/>
     <row r="1380">
       <c r="B1380" s="2" t="n">
-        <v>0.1880060099877225</v>
+        <v>0.3369788631833159</v>
       </c>
     </row>
     <row r="1381"/>
@@ -2373,7 +2373,7 @@
     <row r="1432"/>
     <row r="1433">
       <c r="B1433" s="2" t="n">
-        <v>0.1381994583973745</v>
+        <v>0.491747737189747</v>
       </c>
     </row>
     <row r="1434"/>
@@ -2431,7 +2431,7 @@
     <row r="1486"/>
     <row r="1487">
       <c r="B1487" s="2" t="n">
-        <v>0.3914077547453056</v>
+        <v>0.74843080735989</v>
       </c>
     </row>
     <row r="1488"/>
@@ -2490,7 +2490,7 @@
     <row r="1541"/>
     <row r="1542">
       <c r="B1542" s="2" t="n">
-        <v>0.2019733033238686</v>
+        <v>0.9227743172451149</v>
       </c>
     </row>
     <row r="1543"/>
@@ -2550,7 +2550,7 @@
     <row r="1597"/>
     <row r="1598">
       <c r="B1598" s="2" t="n">
-        <v>0.5067132166195435</v>
+        <v>0.375006746205385</v>
       </c>
     </row>
     <row r="1599"/>
@@ -2611,7 +2611,7 @@
     <row r="1654"/>
     <row r="1655">
       <c r="B1655" s="2" t="n">
-        <v>0.4786783584748204</v>
+        <v>0.4406452526224195</v>
       </c>
     </row>
     <row r="1656"/>
@@ -2673,7 +2673,7 @@
     <row r="1712"/>
     <row r="1713">
       <c r="B1713" s="2" t="n">
-        <v>0.1510120870371376</v>
+        <v>0.1627528355421636</v>
       </c>
     </row>
     <row r="1714"/>
@@ -2736,7 +2736,7 @@
     <row r="1771"/>
     <row r="1772">
       <c r="B1772" s="2" t="n">
-        <v>0.9912172877556998</v>
+        <v>0.3232920380398971</v>
       </c>
     </row>
     <row r="1773"/>
@@ -2800,7 +2800,7 @@
     <row r="1831"/>
     <row r="1832">
       <c r="B1832" s="2" t="n">
-        <v>0.8314466537809194</v>
+        <v>0.3412363983280743</v>
       </c>
     </row>
     <row r="1833"/>
@@ -2865,7 +2865,7 @@
     <row r="1892"/>
     <row r="1893">
       <c r="B1893" s="2" t="n">
-        <v>0.2658471252567809</v>
+        <v>0.8112304032525423</v>
       </c>
     </row>
     <row r="1894"/>
@@ -2931,7 +2931,7 @@
     <row r="1954"/>
     <row r="1955">
       <c r="B1955" s="2" t="n">
-        <v>0.8998839081075091</v>
+        <v>0.4921300487568031</v>
       </c>
     </row>
     <row r="1956"/>
@@ -2998,7 +2998,7 @@
     <row r="2017"/>
     <row r="2018">
       <c r="B2018" s="2" t="n">
-        <v>0.740854841574875</v>
+        <v>0.9312629110688924</v>
       </c>
     </row>
     <row r="2019"/>
@@ -3066,7 +3066,7 @@
     <row r="2081"/>
     <row r="2082">
       <c r="B2082" s="2" t="n">
-        <v>0.6540414719143464</v>
+        <v>0.1519777749444693</v>
       </c>
     </row>
     <row r="2083"/>
@@ -3135,7 +3135,7 @@
     <row r="2146"/>
     <row r="2147">
       <c r="B2147" s="2" t="n">
-        <v>0.799503875740713</v>
+        <v>0.221478154950199</v>
       </c>
     </row>
     <row r="2148"/>
@@ -3205,7 +3205,7 @@
     <row r="2212"/>
     <row r="2213">
       <c r="B2213" s="2" t="n">
-        <v>0.8013724372142181</v>
+        <v>0.05718474730437551</v>
       </c>
     </row>
     <row r="2214"/>
@@ -3276,7 +3276,7 @@
     <row r="2279"/>
     <row r="2280">
       <c r="B2280" s="2" t="n">
-        <v>0.1221638230037958</v>
+        <v>0.3247305208620633</v>
       </c>
     </row>
     <row r="2281"/>
@@ -3348,7 +3348,7 @@
     <row r="2347"/>
     <row r="2348">
       <c r="B2348" s="2" t="n">
-        <v>0.3951304471804706</v>
+        <v>0.05213196231691242</v>
       </c>
     </row>
     <row r="2349"/>
@@ -3421,7 +3421,7 @@
     <row r="2416"/>
     <row r="2417">
       <c r="B2417" s="2" t="n">
-        <v>0.7097482622509481</v>
+        <v>0.1281480136799851</v>
       </c>
     </row>
     <row r="2418"/>
@@ -3495,7 +3495,7 @@
     <row r="2486"/>
     <row r="2487">
       <c r="B2487" s="2" t="n">
-        <v>0.9365510978950383</v>
+        <v>0.49522702347158</v>
       </c>
     </row>
     <row r="2488"/>
@@ -3570,7 +3570,7 @@
     <row r="2557"/>
     <row r="2558">
       <c r="B2558" s="2" t="n">
-        <v>0.8728973339067881</v>
+        <v>0.1153571624064988</v>
       </c>
     </row>
     <row r="2559"/>
@@ -3646,7 +3646,7 @@
     <row r="2629"/>
     <row r="2630">
       <c r="B2630" s="2" t="n">
-        <v>0.6494514645618127</v>
+        <v>0.9491007975498134</v>
       </c>
     </row>
     <row r="2631"/>
@@ -3723,7 +3723,7 @@
     <row r="2702"/>
     <row r="2703">
       <c r="B2703" s="2" t="n">
-        <v>0.2896426580135734</v>
+        <v>0.6126090651912499</v>
       </c>
     </row>
     <row r="2704"/>
@@ -3801,7 +3801,7 @@
     <row r="2776"/>
     <row r="2777">
       <c r="B2777" s="2" t="n">
-        <v>0.05874243699790205</v>
+        <v>0.793824254274534</v>
       </c>
     </row>
     <row r="2778"/>
@@ -3880,7 +3880,7 @@
     <row r="2851"/>
     <row r="2852">
       <c r="B2852" s="2" t="n">
-        <v>0.4403928253594933</v>
+        <v>0.497473792765022</v>
       </c>
     </row>
     <row r="2853"/>
@@ -3960,7 +3960,7 @@
     <row r="2927"/>
     <row r="2928">
       <c r="B2928" s="2" t="n">
-        <v>0.2364046752063123</v>
+        <v>0.0591318930771223</v>
       </c>
     </row>
     <row r="2929"/>
@@ -4041,7 +4041,7 @@
     <row r="3004"/>
     <row r="3005">
       <c r="B3005" s="2" t="n">
-        <v>0.5985935443683719</v>
+        <v>0.8331604675246669</v>
       </c>
     </row>
     <row r="3006"/>
@@ -4123,7 +4123,7 @@
     <row r="3082"/>
     <row r="3083">
       <c r="B3083" s="2" t="n">
-        <v>0.9755754388272452</v>
+        <v>0.5555588334014989</v>
       </c>
     </row>
     <row r="3084"/>
@@ -4206,7 +4206,7 @@
     <row r="3161"/>
     <row r="3162">
       <c r="B3162" s="2" t="n">
-        <v>0.5743205259637745</v>
+        <v>0.9208615525177527</v>
       </c>
     </row>
     <row r="3163"/>
@@ -4290,7 +4290,7 @@
     <row r="3241"/>
     <row r="3242">
       <c r="B3242" s="2" t="n">
-        <v>0.2550987756311873</v>
+        <v>0.1240743058152898</v>
       </c>
     </row>
     <row r="3243"/>
@@ -4375,7 +4375,7 @@
     <row r="3322"/>
     <row r="3323">
       <c r="B3323" s="2" t="n">
-        <v>0.4743279747872446</v>
+        <v>0.06514061986707265</v>
       </c>
     </row>
     <row r="3324"/>
@@ -4461,7 +4461,7 @@
     <row r="3404"/>
     <row r="3405">
       <c r="B3405" s="2" t="n">
-        <v>0.0963607017558229</v>
+        <v>0.953803861968478</v>
       </c>
     </row>
     <row r="3406"/>
@@ -4548,7 +4548,7 @@
     <row r="3487"/>
     <row r="3488">
       <c r="B3488" s="2" t="n">
-        <v>0.5909277385485868</v>
+        <v>0.2026045992806965</v>
       </c>
     </row>
     <row r="3489"/>
@@ -4636,7 +4636,7 @@
     <row r="3571"/>
     <row r="3572">
       <c r="B3572" s="2" t="n">
-        <v>0.9395738022673146</v>
+        <v>0.284963488826231</v>
       </c>
     </row>
     <row r="3573"/>
@@ -4725,7 +4725,7 @@
     <row r="3656"/>
     <row r="3657">
       <c r="B3657" s="2" t="n">
-        <v>0.6005708055705568</v>
+        <v>0.9305560888492725</v>
       </c>
     </row>
     <row r="3658"/>
@@ -4815,7 +4815,7 @@
     <row r="3742"/>
     <row r="3743">
       <c r="B3743" s="2" t="n">
-        <v>0.3908241809599932</v>
+        <v>0.3335162439960162</v>
       </c>
     </row>
     <row r="3744"/>
@@ -4906,7 +4906,7 @@
     <row r="3829"/>
     <row r="3830">
       <c r="B3830" s="2" t="n">
-        <v>0.03307068036295013</v>
+        <v>0.868665798898882</v>
       </c>
     </row>
     <row r="3831"/>
@@ -4998,7 +4998,7 @@
     <row r="3917"/>
     <row r="3918">
       <c r="B3918" s="2" t="n">
-        <v>0.9641682766895722</v>
+        <v>0.1229284402764557</v>
       </c>
     </row>
     <row r="3919"/>
@@ -5091,7 +5091,7 @@
     <row r="4006"/>
     <row r="4007">
       <c r="B4007" s="2" t="n">
-        <v>0.6152581449304974</v>
+        <v>0.2385549354871658</v>
       </c>
     </row>
     <row r="4008"/>
@@ -5185,7 +5185,7 @@
     <row r="4096"/>
     <row r="4097">
       <c r="B4097" s="2" t="n">
-        <v>0.02407211099040729</v>
+        <v>0.1921434892946414</v>
       </c>
     </row>
     <row r="4098"/>
@@ -5280,7 +5280,7 @@
     <row r="4187"/>
     <row r="4188">
       <c r="B4188" s="2" t="n">
-        <v>0.6123098560515146</v>
+        <v>0.07941596469900802</v>
       </c>
     </row>
     <row r="4189"/>
@@ -5376,7 +5376,7 @@
     <row r="4279"/>
     <row r="4280">
       <c r="B4280" s="2" t="n">
-        <v>0.5452211076821474</v>
+        <v>0.3809801422992714</v>
       </c>
     </row>
     <row r="4281"/>
@@ -5473,7 +5473,7 @@
     <row r="4372"/>
     <row r="4373">
       <c r="B4373" s="2" t="n">
-        <v>0.4061160636196223</v>
+        <v>0.2621253304313432</v>
       </c>
     </row>
     <row r="4374"/>
@@ -5571,7 +5571,7 @@
     <row r="4466"/>
     <row r="4467">
       <c r="B4467" s="2" t="n">
-        <v>0.7682441722026168</v>
+        <v>0.5550369475625051</v>
       </c>
     </row>
     <row r="4468"/>
@@ -5670,7 +5670,7 @@
     <row r="4561"/>
     <row r="4562">
       <c r="B4562" s="2" t="n">
-        <v>0.8519871238718371</v>
+        <v>0.4389375848324473</v>
       </c>
     </row>
     <row r="4563"/>
@@ -5770,7 +5770,7 @@
     <row r="4657"/>
     <row r="4658">
       <c r="B4658" s="2" t="n">
-        <v>0.02461464088337495</v>
+        <v>0.2012644360349682</v>
       </c>
     </row>
     <row r="4659"/>
@@ -5871,7 +5871,7 @@
     <row r="4754"/>
     <row r="4755">
       <c r="B4755" s="2" t="n">
-        <v>0.205413888500433</v>
+        <v>0.08972269068739391</v>
       </c>
     </row>
     <row r="4756"/>
@@ -5973,7 +5973,7 @@
     <row r="4852"/>
     <row r="4853">
       <c r="B4853" s="2" t="n">
-        <v>0.3393613141482187</v>
+        <v>0.8112362632043646</v>
       </c>
     </row>
     <row r="4854"/>
@@ -6076,7 +6076,7 @@
     <row r="4951"/>
     <row r="4952">
       <c r="B4952" s="2" t="n">
-        <v>0.3839382367472488</v>
+        <v>0.2782524436627197</v>
       </c>
     </row>
     <row r="4953"/>
